--- a/data/trans_camb/P38A-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Habitat-trans_camb.xlsx
@@ -618,13 +618,13 @@
         <v>0.7053725017845736</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.060336490291282</v>
+        <v>3.06033649029126</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-0.8014680140942421</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.305237819992911</v>
+        <v>2.305237819992934</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.973777200941539</v>
+        <v>-5.763758712233217</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.920941769431082</v>
+        <v>-3.029598570788393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.720696045601278</v>
+        <v>-2.779853965079124</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1880162986609628</v>
+        <v>0.02390512970537692</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.311864165566817</v>
+        <v>-3.371047410615162</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.2777188717394851</v>
+        <v>-0.4866113103032173</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.330306135666296</v>
+        <v>1.423526612385975</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.161315897853868</v>
+        <v>5.17520208538914</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.886860945201201</v>
+        <v>3.927209330181218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.43692217892351</v>
+        <v>6.369121224458477</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.670486115083992</v>
+        <v>1.662243893683612</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.096656777284371</v>
+        <v>4.874918575264664</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>0.007939474408340584</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.03444628644312976</v>
+        <v>0.03444628644312951</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.009082906366811182</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02612488446702438</v>
+        <v>0.02612488446702464</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.06680567179435024</v>
+        <v>-0.06541069281616621</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03241995121990408</v>
+        <v>-0.03396803725937006</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03001645415124587</v>
+        <v>-0.03070958336625714</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.001999216660568598</v>
+        <v>0.0001999452021103352</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03722148537898235</v>
+        <v>-0.03761517414897839</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.003163531317742128</v>
+        <v>-0.005509367677064598</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01589483423964849</v>
+        <v>0.01616497754939166</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05964126247526733</v>
+        <v>0.06012337756228706</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.04460510664859682</v>
+        <v>0.04485611703932461</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07433948619909891</v>
+        <v>0.07214438854000572</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01935924912394575</v>
+        <v>0.01910788933616091</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05818004776339272</v>
+        <v>0.05614011220177412</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>-0.5953555646570408</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-1.479731461095957</v>
+        <v>-1.479731461095968</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>3.862558516869175</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.026096871515819</v>
+        <v>-4.239563899240442</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.376519321015771</v>
+        <v>-5.290843447289481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.214685562817508</v>
+        <v>1.391421532468218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.482708803067797</v>
+        <v>-3.26917728569138</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6387479463967599</v>
+        <v>-0.5546220361905625</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.515257727815909</v>
+        <v>-3.256313445570526</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.85726852795731</v>
+        <v>2.871943970562709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.823313953211555</v>
+        <v>2.482756658746823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.523275133892241</v>
+        <v>6.702167604940248</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.274058715679811</v>
+        <v>2.454448351888737</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.856092214245451</v>
+        <v>3.837621867973288</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.386053391534734</v>
+        <v>1.49396060156894</v>
       </c>
     </row>
     <row r="13">
@@ -850,7 +850,7 @@
         <v>-0.007151050423929597</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.01777363800784803</v>
+        <v>-0.01777363800784816</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.04373032452040261</v>
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0473870549233566</v>
+        <v>-0.0498588167518545</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06352683968790475</v>
+        <v>-0.06175099200948852</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.01392355632840429</v>
+        <v>0.0154696370496036</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03884913899501394</v>
+        <v>-0.03640365121071254</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007247597722230257</v>
+        <v>-0.006473108307650305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04049393191644037</v>
+        <v>-0.03759126372284802</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.0350435502079943</v>
+        <v>0.03462778373022748</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02237962934752111</v>
+        <v>0.03059424743290887</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07551230780718324</v>
+        <v>0.07751999978259776</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02626052116726454</v>
+        <v>0.02842792794351748</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04556684439706429</v>
+        <v>0.04540449889683799</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0164584077148138</v>
+        <v>0.01753767978627173</v>
       </c>
     </row>
     <row r="16">
@@ -932,7 +932,7 @@
         <v>-1.692810723176763</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-2.317747359317224</v>
+        <v>-2.317747359317213</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.90498678694797</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.547913345083235</v>
+        <v>-5.715053359255679</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.977943670156009</v>
+        <v>-7.151589709495124</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.936759727972048</v>
+        <v>-2.093993301254209</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.10872450682872</v>
+        <v>-3.503448096766383</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.86155506470515</v>
+        <v>-2.780828625298438</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.645287357939456</v>
+        <v>-4.215751969431597</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.497805604510518</v>
+        <v>2.018480688307605</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.011911151353974</v>
+        <v>2.24674052010491</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.790184903677071</v>
+        <v>4.23805712788708</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.22077717667739</v>
+        <v>2.917400159471925</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.920630715327142</v>
+        <v>2.207211403261231</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.908740949445733</v>
+        <v>1.301639241019156</v>
       </c>
     </row>
     <row r="19">
@@ -1010,7 +1010,7 @@
         <v>-0.01986573643200108</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.02719959031790383</v>
+        <v>-0.0271995903179037</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.01001830878637446</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0642612621098248</v>
+        <v>-0.06638916304301687</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08036050620576278</v>
+        <v>-0.08261217978568015</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02101882203206808</v>
+        <v>-0.02273832396769233</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.03392175679193373</v>
+        <v>-0.03823719164744026</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03248326679597684</v>
+        <v>-0.03142155137103709</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04124279088257216</v>
+        <v>-0.04687199011597248</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.02991679786568328</v>
+        <v>0.02456070141421057</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.02340280537917518</v>
+        <v>0.02677416248416504</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.04280659498990801</v>
+        <v>0.047912283031728</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.03645500040718846</v>
+        <v>0.03278718663048959</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02217593779621576</v>
+        <v>0.02529442926738912</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02205402106693073</v>
+        <v>0.01496412120757897</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.829148463261857</v>
+        <v>-5.943602038141746</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.08262326674044</v>
+        <v>-10.75748458978249</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.194874475554689</v>
+        <v>-6.941603824391228</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.249458228340641</v>
+        <v>-8.249176864402392</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.75151200828775</v>
+        <v>-5.698196329958213</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.561651852345809</v>
+        <v>-8.639786050348782</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9356241627303247</v>
+        <v>0.9098591600223546</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.17908875723976</v>
+        <v>-2.928128625121552</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.649386642098499</v>
+        <v>-1.578986667073387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.679437912681101</v>
+        <v>-2.65009193469929</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.288264057564545</v>
+        <v>-1.476459188300889</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-3.786848460673256</v>
+        <v>-4.037497837792138</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0663195460480903</v>
+        <v>-0.06848471595067902</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1275503780202004</v>
+        <v>-0.1239253252795629</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07811762361597172</v>
+        <v>-0.07611286571054633</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.089507781096754</v>
+        <v>-0.08983896342730562</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.06406965215718034</v>
+        <v>-0.06355487529943561</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0951938525552605</v>
+        <v>-0.09666962105400496</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01106165527505408</v>
+        <v>0.01066862543851565</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.03683379683021062</v>
+        <v>-0.03533268567087145</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.01887716458083727</v>
+        <v>-0.0182833309031775</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.02973181287500338</v>
+        <v>-0.02961242251976131</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01473096987453445</v>
+        <v>-0.01655443271355682</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04283944418491532</v>
+        <v>-0.04596344485648299</v>
       </c>
     </row>
     <row r="28">
@@ -1252,19 +1252,19 @@
         <v>-1.728485969611038</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-2.631605768790901</v>
+        <v>-2.63160576879089</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.1647614802413044</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-1.191485305742879</v>
+        <v>-1.191485305742856</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-0.7515229401655943</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.875251602659811</v>
+        <v>-1.8752516026598</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.476233451497559</v>
+        <v>-3.598666025402908</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.800609319300275</v>
+        <v>-4.861899595735705</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.327391494378601</v>
+        <v>-1.265052420791446</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.687137062566666</v>
+        <v>-2.805237923148503</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.845296155024996</v>
+        <v>-1.774558799129116</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-3.179617776537832</v>
+        <v>-3.125646827606078</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.209865011778183</v>
+        <v>0.0172231810751182</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.5055448620385021</v>
+        <v>-0.7031643389637844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.587282950740529</v>
+        <v>1.503563196837161</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3228252467707959</v>
+        <v>0.244983979138477</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.529417347020363</v>
+        <v>0.4261597288010363</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.6967779763660407</v>
+        <v>-0.5603892691007653</v>
       </c>
     </row>
     <row r="31">
@@ -1330,19 +1330,19 @@
         <v>-0.02026233120619915</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.03084923373915772</v>
+        <v>-0.03084923373915759</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.001837511560765767</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.01328810605839784</v>
+        <v>-0.01328810605839759</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.00858590756516784</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.02142414563994849</v>
+        <v>-0.02142414563994836</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04029095511255516</v>
+        <v>-0.04153631734593195</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.05591360364324922</v>
+        <v>-0.05620933363282254</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.01464263881656591</v>
+        <v>-0.01404128478996918</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02977484714495229</v>
+        <v>-0.03095302336744859</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02101136798530574</v>
+        <v>-0.02010559162158948</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.03618797832801881</v>
+        <v>-0.03548499599756278</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.002519994439683888</v>
+        <v>0.0002032444944721628</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.006169000662452444</v>
+        <v>-0.008246237115335455</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.01786641549451254</v>
+        <v>0.01687051680488248</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.003601631550741924</v>
+        <v>0.002924449978395079</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.006105569272652141</v>
+        <v>0.004964608361495196</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.00810149770423052</v>
+        <v>-0.006482125100722515</v>
       </c>
     </row>
     <row r="34">
